--- a/Wetspot/36807/zres_siteapp_NEW.xlsx
+++ b/Wetspot/36807/zres_siteapp_NEW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Wetspot\36807\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F9BBF-5727-4518-952D-1A40DA7B2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E95C91-6A67-4FE2-9821-8978958DA5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="330" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="11295" yWindow="2880" windowWidth="26775" windowHeight="17745" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -41,13 +41,190 @@
   </si>
   <si>
     <t>Postfix</t>
+  </si>
+  <si>
+    <t>b21ee47c-c85a-4a83-8daf-326932b855da</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>External Paving (Pods &amp; Pavers) ITP</t>
+  </si>
+  <si>
+    <t>itp</t>
+  </si>
+  <si>
+    <t>External Paving (Pods &amp; Pavers)</t>
+  </si>
+  <si>
+    <t>d6f8f089-3d99-441d-8f55-c7588c0a67cc</t>
+  </si>
+  <si>
+    <t>d3284722-d066-4920-a6ed-bdffecefc7bb</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>8716429f-131f-44b9-b784-0cd550379205</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>1. Ensure Material and Tiles Set out Approved As per the drawings and spec</t>
+  </si>
+  <si>
+    <t>1a570365-585d-504a-aac6-d4e3133ca3e3</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>Drawings in use:</t>
+  </si>
+  <si>
+    <t>dda01f74-d3d6-49fd-a64b-25aad726c42f</t>
+  </si>
+  <si>
+    <t>signoff</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>9a9acaf8-d8d6-4aed-977f-28ed2783157f</t>
+  </si>
+  <si>
+    <t>2. Inspect substrate surface. Do not proceed works if substrate is unsatisfactory and report any issues to MPX for rectification</t>
+  </si>
+  <si>
+    <t>333a6515-d869-48ec-ac39-8c019147af8a</t>
+  </si>
+  <si>
+    <t>3. Install Pedestal System &amp; Lay pavers</t>
+  </si>
+  <si>
+    <t>fdb976eb-8ba5-4e47-884a-c464751c6b9a</t>
+  </si>
+  <si>
+    <t>4. Install Windproof Locking system where required (P8 Pavers)</t>
+  </si>
+  <si>
+    <t>67225f86-0daf-4146-8430-f3ba5570ee68</t>
+  </si>
+  <si>
+    <t>5. Clean area</t>
+  </si>
+  <si>
+    <t>54d395f5-6d2f-484f-9bf4-b70dfa254cf4</t>
+  </si>
+  <si>
+    <t>7. Final Inspection and acceptance by MPX</t>
+  </si>
+  <si>
+    <t>f88682bc-dc67-4980-b217-e5174964ce61</t>
+  </si>
+  <si>
+    <t>Wetspot Supervisor signature</t>
+  </si>
+  <si>
+    <t>6cccd979-c9e4-4957-82d9-fe5cd65c067b</t>
+  </si>
+  <si>
+    <t>Village Green Paving ITP</t>
+  </si>
+  <si>
+    <t>Paving</t>
+  </si>
+  <si>
+    <t>dd78b4b0-56e7-453f-b166-46be8862885b</t>
+  </si>
+  <si>
+    <t>0939246a-a040-4cfa-a403-557d0059fb7d</t>
+  </si>
+  <si>
+    <t>b2b5b961-5fa3-4bfc-b181-37abc2d97983</t>
+  </si>
+  <si>
+    <t>3659e8d6-82f6-5a29-8348-3f1f99887f9b</t>
+  </si>
+  <si>
+    <t>09f51d86-07c7-4d30-b78b-a78e1c12e913</t>
+  </si>
+  <si>
+    <t>d25a3a1a-d641-4f53-bf19-a2d1b650d88f</t>
+  </si>
+  <si>
+    <t>dcef2344-3b94-4e30-bddd-f0fa0275d5fa</t>
+  </si>
+  <si>
+    <t>3. Set out Pavers</t>
+  </si>
+  <si>
+    <t>903b7b2d-73ea-40d8-b20f-bc9bcbb5ee93</t>
+  </si>
+  <si>
+    <t>4. Apply Mudfixing Mortar</t>
+  </si>
+  <si>
+    <t>73aacc8d-cc25-5ebb-8614-7532026b84f8</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Maximum 60mm only to courtyards and public realms</t>
+  </si>
+  <si>
+    <t>7c53c2b8-25cc-57b5-9501-e5b0a7a71295</t>
+  </si>
+  <si>
+    <t>Maximum 120mm Sand &amp; Cement + Planicrete mudfix mortar in lieu of binding slab</t>
+  </si>
+  <si>
+    <t>6ef568e1-cfaf-4219-bbab-41ce71edf0e8</t>
+  </si>
+  <si>
+    <t>5. Lay Pavers</t>
+  </si>
+  <si>
+    <t>9ba581f4-3b22-43df-896e-fc953c3a918e</t>
+  </si>
+  <si>
+    <t>6. Apply Grout</t>
+  </si>
+  <si>
+    <t>7f731c6b-d5dc-4f71-971c-bc0f770d2376</t>
+  </si>
+  <si>
+    <t>7. Inspect Waste Blockages - Provide Photo/s</t>
+  </si>
+  <si>
+    <t>2858f61d-2aec-4808-a30e-5a67d8f5c5f6</t>
+  </si>
+  <si>
+    <t>8. Clean area</t>
+  </si>
+  <si>
+    <t>f3e3317d-d8a3-4a45-a877-21c8a660f2f8</t>
+  </si>
+  <si>
+    <t>9. Final Inspection and acceptance by MPX</t>
+  </si>
+  <si>
+    <t>a2aec003-a6e4-40ba-b650-5d4b84f325f3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +359,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +542,16 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
       </patternFill>
     </fill>
   </fills>
@@ -524,8 +715,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,9 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -938,6 +1136,327 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
